--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/correct_predictions_67.xlsx
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -857,26 +857,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,52 +1286,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2096,22 +2096,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/67/correct_predictions_67.xlsx
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -857,26 +857,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,42 +1226,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,52 +1286,52 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2096,22 +2096,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
